--- a/output/endemo2_specific_consumption_projections_2018.xlsx
+++ b/output/endemo2_specific_consumption_projections_2018.xlsx
@@ -3571,12 +3571,8 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>5.85765</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22.75093</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
